--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="1034">
   <si>
     <t>anchor score</t>
   </si>
@@ -334,751 +334,751 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>developed</t>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>staples</t>
+  </si>
+  <si>
+    <t>prior</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>couple</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>responsible</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>parking</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>developed</t>
-  </si>
-  <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>lowe</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>ladies</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>affordable</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>staples</t>
-  </si>
-  <si>
-    <t>prior</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>couple</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>ceo</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>remember</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>win</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>comedy</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>lowe</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>ladies</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>affordable</t>
   </si>
   <si>
     <t>save</t>
@@ -3481,10 +3481,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4263,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4363,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4413,7 +4413,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -4513,7 +4513,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K26">
         <v>0.9333333333333333</v>
@@ -4763,7 +4763,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K27">
         <v>0.9333333333333333</v>
@@ -4813,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K28">
         <v>0.9230769230769231</v>
@@ -4863,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K29">
         <v>0.9166666666666666</v>
@@ -4963,7 +4963,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K31">
         <v>0.9148936170212766</v>
@@ -5113,7 +5113,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K34">
         <v>0.9090909090909091</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K35">
         <v>0.9090909090909091</v>
@@ -5213,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K36">
         <v>0.9</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K39">
         <v>0.889763779527559</v>
@@ -5413,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K40">
         <v>0.8888888888888888</v>
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K42">
         <v>0.8888888888888888</v>
@@ -5563,7 +5563,7 @@
         <v>5</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K43">
         <v>0.8888888888888888</v>
@@ -5713,7 +5713,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K46">
         <v>0.875</v>
@@ -5763,7 +5763,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K47">
         <v>0.875</v>
@@ -5863,7 +5863,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K49">
         <v>0.8636363636363636</v>
@@ -5913,7 +5913,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K50">
         <v>0.8571428571428571</v>
@@ -5963,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K51">
         <v>0.8571428571428571</v>
@@ -6013,7 +6013,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K52">
         <v>0.8571428571428571</v>
@@ -6063,7 +6063,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K53">
         <v>0.8571428571428571</v>
@@ -6263,7 +6263,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K57">
         <v>0.85</v>
@@ -6313,7 +6313,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K58">
         <v>0.8461538461538461</v>
@@ -6363,7 +6363,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K59">
         <v>0.8461538461538461</v>
@@ -6413,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K60">
         <v>0.8421052631578947</v>
@@ -6513,7 +6513,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K62">
         <v>0.8333333333333334</v>
@@ -6613,7 +6613,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K64">
         <v>0.8333333333333334</v>
@@ -6663,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K65">
         <v>0.8333333333333334</v>
@@ -6713,7 +6713,7 @@
         <v>17</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K66">
         <v>0.8333333333333334</v>
@@ -6763,7 +6763,7 @@
         <v>5</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K67">
         <v>0.8333333333333334</v>
@@ -6863,7 +6863,7 @@
         <v>8</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K69">
         <v>0.8214285714285714</v>
@@ -6913,7 +6913,7 @@
         <v>55</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K70">
         <v>0.8214285714285714</v>
@@ -6963,7 +6963,7 @@
         <v>11</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K71">
         <v>0.8181818181818182</v>
@@ -7013,7 +7013,7 @@
         <v>12</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K72">
         <v>0.8181818181818182</v>
@@ -7063,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K73">
         <v>0.8141025641025641</v>
@@ -7113,7 +7113,7 @@
         <v>3</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K74">
         <v>0.8</v>
@@ -7263,7 +7263,7 @@
         <v>3</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K77">
         <v>0.7936507936507936</v>
@@ -7413,28 +7413,28 @@
         <v>12</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="K80">
-        <v>0.762114537444934</v>
+        <v>0.75</v>
       </c>
       <c r="L80">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="M80">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="N80">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -7463,16 +7463,16 @@
         <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K81">
         <v>0.75</v>
       </c>
       <c r="L81">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M81">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -7513,28 +7513,28 @@
         <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>327</v>
+        <v>62</v>
       </c>
       <c r="K82">
         <v>0.75</v>
       </c>
       <c r="L82">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M82">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -7563,28 +7563,28 @@
         <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="K83">
         <v>0.75</v>
       </c>
       <c r="L83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M83">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N83">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="O83">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -7613,28 +7613,28 @@
         <v>3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="K84">
         <v>0.75</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N84">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -7663,7 +7663,7 @@
         <v>3</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K85">
         <v>0.75</v>
@@ -7713,16 +7713,16 @@
         <v>10</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K86">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L86">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M86">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -7763,7 +7763,7 @@
         <v>7</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K87">
         <v>0.7333333333333333</v>
@@ -7813,28 +7813,28 @@
         <v>11</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>331</v>
+        <v>88</v>
       </c>
       <c r="K88">
-        <v>0.7333333333333333</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L88">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M88">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -7863,7 +7863,7 @@
         <v>27</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K89">
         <v>0.7272727272727273</v>
@@ -7913,28 +7913,28 @@
         <v>4</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="K90">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L90">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="M90">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="N90">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -7963,7 +7963,7 @@
         <v>4</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K91">
         <v>0.7222222222222222</v>
@@ -8013,7 +8013,7 @@
         <v>4</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K92">
         <v>0.7222222222222222</v>
@@ -8063,7 +8063,7 @@
         <v>4</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K93">
         <v>0.7164179104477612</v>
@@ -8163,7 +8163,7 @@
         <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K95">
         <v>0.7142857142857143</v>
@@ -8213,7 +8213,7 @@
         <v>8</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K96">
         <v>0.7142857142857143</v>
@@ -8263,7 +8263,7 @@
         <v>4</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K97">
         <v>0.7142857142857143</v>
@@ -8313,7 +8313,7 @@
         <v>21</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K98">
         <v>0.7142857142857143</v>
@@ -8413,7 +8413,7 @@
         <v>13</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K100">
         <v>0.7111111111111111</v>
@@ -8442,28 +8442,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C101">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D101">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K101">
         <v>0.7083333333333334</v>
@@ -8495,25 +8495,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>14</v>
+      </c>
+      <c r="E102">
+        <v>0.93</v>
+      </c>
+      <c r="F102">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102">
         <v>5</v>
       </c>
-      <c r="D102">
-        <v>5</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>25</v>
-      </c>
       <c r="J102" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K102">
         <v>0.7073170731707317</v>
@@ -8548,22 +8548,22 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>5</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K103">
         <v>0.7058823529411765</v>
@@ -8595,25 +8595,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K104">
         <v>0.7</v>
@@ -8645,25 +8645,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E105">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F105">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K105">
         <v>0.7</v>
@@ -8698,13 +8698,13 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F106">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
@@ -8713,7 +8713,7 @@
         <v>5</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K106">
         <v>0.6956521739130435</v>
@@ -8748,22 +8748,22 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K107">
         <v>0.6875</v>
@@ -8798,22 +8798,22 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>5</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K108">
         <v>0.6818181818181818</v>
@@ -8842,28 +8842,28 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1666666666666667</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D109">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K109">
         <v>0.671875</v>
@@ -8892,13 +8892,13 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1621621621621622</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -8910,10 +8910,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K110">
         <v>0.6678321678321678</v>
@@ -8942,13 +8942,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1578947368421053</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>61</v>
@@ -8992,13 +8992,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -9010,10 +9010,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K112">
         <v>0.6666666666666666</v>
@@ -9063,7 +9063,7 @@
         <v>6</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K113">
         <v>0.6666666666666666</v>
@@ -9113,7 +9113,7 @@
         <v>6</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K114">
         <v>0.6666666666666666</v>
@@ -9163,7 +9163,7 @@
         <v>6</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K115">
         <v>0.6666666666666666</v>
@@ -9213,7 +9213,7 @@
         <v>6</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K116">
         <v>0.6666666666666666</v>
@@ -9245,25 +9245,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K117">
         <v>0.6666666666666666</v>
@@ -9298,13 +9298,13 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E118">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F118">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
@@ -9345,25 +9345,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="E119">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F119">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K119">
         <v>0.6666666666666666</v>
@@ -9395,25 +9395,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K120">
         <v>0.6666666666666666</v>
@@ -9445,10 +9445,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>89</v>
@@ -9492,28 +9492,28 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.1428571428571428</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K122">
         <v>0.6666666666666666</v>
@@ -9542,13 +9542,13 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.1363636363636364</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E123">
         <v>0.9399999999999999</v>
@@ -9560,31 +9560,31 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="K123">
-        <v>0.6646153846153846</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="L123">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="M123">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="N123">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O123">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -9592,49 +9592,49 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.1333333333333333</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C124">
         <v>4</v>
       </c>
       <c r="D124">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E124">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>226</v>
+        <v>348</v>
       </c>
       <c r="K124">
-        <v>0.6526315789473685</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L124">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="M124">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c r="N124">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O124">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>132</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -9666,13 +9666,13 @@
         <v>349</v>
       </c>
       <c r="K125">
-        <v>0.6521739130434783</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L125">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M125">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -9692,13 +9692,13 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>350</v>
@@ -9748,16 +9748,16 @@
         <v>2</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>14</v>
@@ -9795,46 +9795,46 @@
         <v>0.125</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>352</v>
+        <v>96</v>
       </c>
       <c r="K128">
-        <v>0.6428571428571429</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L128">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M128">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N128">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -9848,22 +9848,22 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>7</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>96</v>
+        <v>352</v>
       </c>
       <c r="K129">
         <v>0.6363636363636364</v>
@@ -9872,16 +9872,16 @@
         <v>7</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O129">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -9898,43 +9898,43 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>7</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>353</v>
+        <v>101</v>
       </c>
       <c r="K130">
         <v>0.6363636363636364</v>
       </c>
       <c r="L130">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M130">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -9942,49 +9942,49 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="K131">
         <v>0.6363636363636364</v>
       </c>
       <c r="L131">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M131">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O131">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -9992,37 +9992,37 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.1212121212121212</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>354</v>
       </c>
       <c r="K132">
-        <v>0.6363636363636364</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L132">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -10042,25 +10042,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.1209677419354839</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C133">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>231</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F133">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>92</v>
@@ -10092,28 +10092,28 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K134">
         <v>0.6296296296296297</v>
@@ -10198,13 +10198,13 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F136">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
@@ -10242,28 +10242,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.1111111111111111</v>
+        <v>0.1027131782945736</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E137">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>8</v>
+        <v>463</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K137">
         <v>0.6162790697674418</v>
@@ -10292,25 +10292,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E138">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F138">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>357</v>
@@ -10342,25 +10342,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.1027131782945736</v>
+        <v>0.1</v>
       </c>
       <c r="C139">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>59</v>
@@ -10398,16 +10398,16 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>9</v>
@@ -10442,25 +10442,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>58</v>
@@ -10492,7 +10492,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10510,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>69</v>
@@ -10548,16 +10548,16 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>10</v>
@@ -10598,16 +10598,16 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
         <v>10</v>
@@ -10648,13 +10648,13 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F145">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
@@ -10698,13 +10698,13 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E146">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F146">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -10748,13 +10748,13 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E147">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
@@ -10798,16 +10798,16 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>10</v>
@@ -10842,25 +10842,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.09090909090909091</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D149">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="E149">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F149">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>104</v>
@@ -10892,7 +10892,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>362</v>
@@ -10942,25 +10942,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.08653846153846154</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C151">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>363</v>
@@ -10995,22 +10995,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>364</v>
@@ -11048,16 +11048,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>11</v>
@@ -11095,22 +11095,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>366</v>
@@ -11148,13 +11148,13 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E155">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F155">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
@@ -11192,13 +11192,13 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -11210,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>368</v>
@@ -11242,25 +11242,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>83</v>
@@ -11292,25 +11292,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.08</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>369</v>
@@ -11342,13 +11342,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -11360,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>370</v>
@@ -11392,25 +11392,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F160">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>371</v>
@@ -11445,22 +11445,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>372</v>
@@ -11498,13 +11498,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E162">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F162">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -11542,25 +11542,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E163">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F163">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>373</v>
@@ -11592,25 +11592,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E164">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F164">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>374</v>
@@ -11642,28 +11642,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K165">
         <v>0.5454545454545454</v>
@@ -11692,25 +11692,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E166">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F166">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>375</v>
@@ -11742,13 +11742,13 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.06451612903225806</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -11760,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>376</v>
@@ -11792,25 +11792,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>377</v>
@@ -11842,25 +11842,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>84</v>
@@ -11892,25 +11892,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>378</v>
@@ -11942,28 +11942,28 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E171">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F171">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K171">
         <v>0.5384615384615384</v>
@@ -11992,25 +11992,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E172">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F172">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>379</v>
@@ -12048,13 +12048,13 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E173">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F173">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
@@ -12063,7 +12063,7 @@
         <v>18</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K173">
         <v>0.5121951219512195</v>
@@ -12098,16 +12098,16 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>18</v>
@@ -12148,16 +12148,16 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>18</v>
@@ -12192,7 +12192,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -12210,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>381</v>
@@ -12242,25 +12242,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>382</v>
@@ -12298,16 +12298,16 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
         <v>19</v>
@@ -12348,13 +12348,13 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E179">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F179">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
@@ -12392,25 +12392,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>384</v>
@@ -12442,25 +12442,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E181">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F181">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>385</v>
@@ -12548,13 +12548,13 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E183">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F183">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
@@ -12598,16 +12598,16 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
         <v>20</v>
@@ -12642,25 +12642,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E185">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F185">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>389</v>
@@ -12692,25 +12692,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>390</v>
@@ -12748,13 +12748,13 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E187">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F187">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
@@ -12792,25 +12792,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.04545454545454546</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E188">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="F188">
-        <v>0.5</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>392</v>
@@ -12842,28 +12842,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.04545454545454546</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F189">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K189">
         <v>0.4761904761904762</v>
@@ -12892,25 +12892,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0425531914893617</v>
+        <v>0.04</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="F190">
-        <v>0.6699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>393</v>
@@ -12942,25 +12942,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F191">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>394</v>
@@ -12992,28 +12992,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K192">
         <v>0.4642857142857143</v>
@@ -13042,25 +13042,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>395</v>
@@ -13092,25 +13092,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>396</v>
@@ -13142,25 +13142,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>397</v>
@@ -13192,25 +13192,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>398</v>
@@ -13242,25 +13242,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.03703703703703703</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>399</v>
@@ -13292,25 +13292,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>400</v>
@@ -13342,25 +13342,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>401</v>
@@ -13392,25 +13392,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>402</v>
@@ -13448,13 +13448,13 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E201">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F201">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
@@ -13492,25 +13492,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E202">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F202">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>404</v>
@@ -13542,28 +13542,28 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E203">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F203">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K203">
         <v>0.4347826086956522</v>
@@ -13592,28 +13592,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K204">
         <v>0.4310344827586207</v>
@@ -13642,25 +13642,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>405</v>
@@ -13692,25 +13692,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>406</v>
@@ -13742,25 +13742,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>407</v>
@@ -13792,25 +13792,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E208">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>102</v>
@@ -13842,25 +13842,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02857142857142857</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E209">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F209">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>408</v>
@@ -13892,13 +13892,13 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02777777777777778</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -13910,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>409</v>
@@ -13942,25 +13942,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>410</v>
@@ -13992,25 +13992,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02597402597402598</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
         <v>2</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>411</v>
@@ -14048,16 +14048,16 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>38</v>
@@ -14092,25 +14092,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E214">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F214">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>413</v>
@@ -14142,28 +14142,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E215">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F215">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K215">
         <v>0.4166666666666667</v>
@@ -14192,25 +14192,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>414</v>
@@ -14242,25 +14242,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F217">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>415</v>
@@ -14292,25 +14292,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>81</v>
@@ -14342,25 +14342,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D219">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="E219">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F219">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>416</v>
@@ -14398,13 +14398,13 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E220">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F220">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
@@ -14442,25 +14442,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="E221">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F221">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>417</v>
@@ -14492,25 +14492,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E222">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="F222">
-        <v>0.07999999999999996</v>
+        <v>0.13</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>418</v>
@@ -14542,25 +14542,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E223">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F223">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>82</v>
@@ -14592,7 +14592,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02083333333333333</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C224">
         <v>2</v>
@@ -14610,7 +14610,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>79</v>
@@ -14642,28 +14642,28 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E225">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F225">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K225">
         <v>0.3894736842105263</v>
@@ -14692,25 +14692,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0202020202020202</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E226">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="F226">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>419</v>
@@ -14742,28 +14742,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E227">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F227">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K227">
         <v>0.3846153846153846</v>
@@ -14792,25 +14792,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E228">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F228">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>420</v>
@@ -14842,28 +14842,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E229">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F229">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K229">
         <v>0.3809523809523809</v>
@@ -14898,13 +14898,13 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E230">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F230">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
@@ -14942,25 +14942,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>422</v>
@@ -14992,25 +14992,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01923076923076923</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>423</v>
@@ -15042,7 +15042,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01818181818181818</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>424</v>
@@ -15092,25 +15092,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01785714285714286</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>55</v>
+        <v>293</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>425</v>
@@ -15142,25 +15142,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01694915254237288</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>426</v>
@@ -15192,28 +15192,28 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01677852348993289</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C236">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F236">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>293</v>
+        <v>61</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K236">
         <v>0.375</v>
@@ -15242,28 +15242,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01652892561983471</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K237">
         <v>0.3658536585365854</v>
@@ -15292,25 +15292,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01612903225806452</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>427</v>
@@ -15392,28 +15392,28 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01515151515151515</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K240">
         <v>0.3571428571428572</v>
@@ -15442,25 +15442,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01515151515151515</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>429</v>
@@ -15492,7 +15492,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01470588235294118</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15510,7 +15510,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>430</v>
@@ -15542,25 +15542,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01470588235294118</v>
+        <v>0.0125</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>431</v>
@@ -15592,25 +15592,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01282051282051282</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E244">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F244">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>432</v>
@@ -15642,25 +15642,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0125</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>433</v>
@@ -15692,28 +15692,28 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01234567901234568</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
         <v>2</v>
       </c>
       <c r="E246">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K246">
         <v>0.3376623376623377</v>
@@ -15742,25 +15742,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01234567901234568</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E247">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F247">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>434</v>
@@ -15792,25 +15792,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01204819277108434</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248">
         <v>2</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>435</v>
@@ -15842,25 +15842,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01176470588235294</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E249">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F249">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>436</v>
@@ -15892,28 +15892,28 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01063829787234043</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E250">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F250">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K250">
         <v>0.3333333333333333</v>
@@ -15942,25 +15942,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.009615384615384616</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E251">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F251">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>437</v>
@@ -15992,25 +15992,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.008403361344537815</v>
+        <v>0.007792207792207792</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D252">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E252">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F252">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>118</v>
+        <v>382</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>438</v>
@@ -16042,25 +16042,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.008130081300813009</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E253">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F253">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>99</v>
@@ -16092,25 +16092,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.007792207792207792</v>
+        <v>0.007556675062972292</v>
       </c>
       <c r="C254">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D254">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="E254">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F254">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>382</v>
+        <v>788</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>439</v>
@@ -16142,25 +16142,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.007751937984496124</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E255">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F255">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>440</v>
@@ -16192,25 +16192,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.007556675062972292</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="C256">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E256">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F256">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>788</v>
+        <v>138</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>74</v>
@@ -16242,28 +16242,28 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.007518796992481203</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E257">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F257">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K257">
         <v>0.3333333333333333</v>
@@ -16292,25 +16292,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.007194244604316547</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E258">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F258">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>87</v>
@@ -16342,25 +16342,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.00684931506849315</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E259">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F259">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>441</v>
@@ -16392,25 +16392,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.006451612903225806</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E260">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F260">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>442</v>
@@ -16442,25 +16442,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.006211180124223602</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E261">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F261">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>95</v>
@@ -16492,25 +16492,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.006024096385542169</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E262">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F262">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>443</v>
@@ -16542,25 +16542,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.005714285714285714</v>
+        <v>0.004993757802746567</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D263">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E263">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F263">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>174</v>
+        <v>797</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>444</v>
@@ -16592,25 +16592,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.005405405405405406</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E264">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F264">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>445</v>
@@ -16642,25 +16642,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.004993757802746567</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="C265">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="E265">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F265">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>797</v>
+        <v>205</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>446</v>
@@ -16692,25 +16692,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.004950495049504951</v>
+        <v>0.0048</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D266">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E266">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F266">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>201</v>
+        <v>622</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>97</v>
@@ -16742,25 +16742,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.004854368932038835</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E267">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F267">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>447</v>
@@ -16792,25 +16792,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0048</v>
+        <v>0.003868471953578337</v>
       </c>
       <c r="C268">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D268">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E268">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F268">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>622</v>
+        <v>2060</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>448</v>
@@ -16842,25 +16842,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.004464285714285714</v>
+        <v>0.003712453594330071</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D269">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="E269">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F269">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>223</v>
+        <v>2952</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>449</v>
@@ -16892,25 +16892,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.003868471953578337</v>
+        <v>0.003067484662576687</v>
       </c>
       <c r="C270">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="E270">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F270">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>2060</v>
+        <v>325</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>450</v>
@@ -16942,25 +16942,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.003712453594330071</v>
+        <v>0.001197604790419162</v>
       </c>
       <c r="C271">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="E271">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F271">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>2952</v>
+        <v>834</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>451</v>
@@ -16992,28 +16992,28 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.003067484662576687</v>
+        <v>0.001036269430051813</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E272">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F272">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>325</v>
+        <v>964</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K272">
         <v>0.3181818181818182</v>
@@ -17042,25 +17042,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.001197604790419162</v>
+        <v>0.000956327701625757</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D273">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E273">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F273">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>834</v>
+        <v>3134</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>452</v>
@@ -17088,30 +17088,6 @@
       </c>
     </row>
     <row r="274" spans="1:17">
-      <c r="A274" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B274">
-        <v>0.001036269430051813</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <v>4</v>
-      </c>
-      <c r="E274">
-        <v>0.75</v>
-      </c>
-      <c r="F274">
-        <v>0.25</v>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274">
-        <v>964</v>
-      </c>
       <c r="J274" s="1" t="s">
         <v>453</v>
       </c>
@@ -17138,32 +17114,8 @@
       </c>
     </row>
     <row r="275" spans="1:17">
-      <c r="A275" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B275">
-        <v>0.000956327701625757</v>
-      </c>
-      <c r="C275">
-        <v>3</v>
-      </c>
-      <c r="D275">
-        <v>67</v>
-      </c>
-      <c r="E275">
-        <v>0.96</v>
-      </c>
-      <c r="F275">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275">
-        <v>3134</v>
-      </c>
       <c r="J275" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K275">
         <v>0.3055555555555556</v>
@@ -17345,7 +17297,7 @@
     </row>
     <row r="282" spans="1:17">
       <c r="J282" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K282">
         <v>0.2905569007263922</v>
@@ -17371,7 +17323,7 @@
     </row>
     <row r="283" spans="1:17">
       <c r="J283" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K283">
         <v>0.2857142857142857</v>
@@ -17397,7 +17349,7 @@
     </row>
     <row r="284" spans="1:17">
       <c r="J284" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K284">
         <v>0.2857142857142857</v>
@@ -17501,7 +17453,7 @@
     </row>
     <row r="288" spans="1:17">
       <c r="J288" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K288">
         <v>0.2857142857142857</v>
@@ -17787,7 +17739,7 @@
     </row>
     <row r="299" spans="10:17">
       <c r="J299" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K299">
         <v>0.2816901408450704</v>
@@ -17839,7 +17791,7 @@
     </row>
     <row r="301" spans="10:17">
       <c r="J301" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K301">
         <v>0.2727272727272727</v>
@@ -17943,7 +17895,7 @@
     </row>
     <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K305">
         <v>0.2727272727272727</v>
@@ -18073,7 +18025,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K310">
         <v>0.2666666666666667</v>
@@ -18229,7 +18181,7 @@
     </row>
     <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K316">
         <v>0.2575757575757576</v>
@@ -18281,7 +18233,7 @@
     </row>
     <row r="318" spans="10:17">
       <c r="J318" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K318">
         <v>0.25</v>
@@ -18567,7 +18519,7 @@
     </row>
     <row r="329" spans="10:17">
       <c r="J329" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K329">
         <v>0.2420382165605096</v>
@@ -18619,7 +18571,7 @@
     </row>
     <row r="331" spans="10:17">
       <c r="J331" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K331">
         <v>0.24</v>
@@ -18723,7 +18675,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K335">
         <v>0.2258064516129032</v>
@@ -19191,7 +19143,7 @@
     </row>
     <row r="353" spans="10:17">
       <c r="J353" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K353">
         <v>0.2142857142857143</v>
@@ -19321,7 +19273,7 @@
     </row>
     <row r="358" spans="10:17">
       <c r="J358" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K358">
         <v>0.2</v>
@@ -19529,7 +19481,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K366">
         <v>0.2</v>
@@ -19659,7 +19611,7 @@
     </row>
     <row r="371" spans="10:17">
       <c r="J371" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K371">
         <v>0.1923076923076923</v>
@@ -19711,7 +19663,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K373">
         <v>0.189873417721519</v>
@@ -19789,7 +19741,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K376">
         <v>0.1818181818181818</v>
@@ -19841,7 +19793,7 @@
     </row>
     <row r="378" spans="10:17">
       <c r="J378" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K378">
         <v>0.1818181818181818</v>
@@ -20049,7 +20001,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K386">
         <v>0.1754385964912281</v>
@@ -20101,7 +20053,7 @@
     </row>
     <row r="388" spans="10:17">
       <c r="J388" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K388">
         <v>0.1739130434782609</v>
@@ -21349,7 +21301,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K436">
         <v>0.1538461538461539</v>
@@ -21401,7 +21353,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K438">
         <v>0.15</v>
@@ -21427,7 +21379,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K439">
         <v>0.1481481481481481</v>
@@ -22181,7 +22133,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K468">
         <v>0.141025641025641</v>
@@ -22337,7 +22289,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K474">
         <v>0.1333333333333333</v>
@@ -22389,7 +22341,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K476">
         <v>0.1323529411764706</v>
@@ -22415,7 +22367,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K477">
         <v>0.1313559322033898</v>
@@ -22623,7 +22575,7 @@
     </row>
     <row r="485" spans="10:17">
       <c r="J485" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K485">
         <v>0.125</v>
@@ -23325,7 +23277,7 @@
     </row>
     <row r="512" spans="10:17">
       <c r="J512" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K512">
         <v>0.1214953271028037</v>
@@ -23351,7 +23303,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K513">
         <v>0.1206896551724138</v>
@@ -23429,7 +23381,7 @@
     </row>
     <row r="516" spans="10:17">
       <c r="J516" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K516">
         <v>0.1181818181818182</v>
@@ -23481,7 +23433,7 @@
     </row>
     <row r="518" spans="10:17">
       <c r="J518" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K518">
         <v>0.1176470588235294</v>
@@ -23611,7 +23563,7 @@
     </row>
     <row r="523" spans="10:17">
       <c r="J523" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K523">
         <v>0.1158536585365854</v>
@@ -23637,7 +23589,7 @@
     </row>
     <row r="524" spans="10:17">
       <c r="J524" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K524">
         <v>0.1126126126126126</v>
@@ -23663,7 +23615,7 @@
     </row>
     <row r="525" spans="10:17">
       <c r="J525" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K525">
         <v>0.1114827201783724</v>
@@ -24235,7 +24187,7 @@
     </row>
     <row r="547" spans="10:17">
       <c r="J547" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K547">
         <v>0.1071428571428571</v>
@@ -24287,7 +24239,7 @@
     </row>
     <row r="549" spans="10:17">
       <c r="J549" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K549">
         <v>0.1063829787234043</v>
@@ -24703,7 +24655,7 @@
     </row>
     <row r="565" spans="10:17">
       <c r="J565" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K565">
         <v>0.09523809523809523</v>
@@ -24833,7 +24785,7 @@
     </row>
     <row r="570" spans="10:17">
       <c r="J570" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K570">
         <v>0.09375</v>
@@ -24859,7 +24811,7 @@
     </row>
     <row r="571" spans="10:17">
       <c r="J571" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K571">
         <v>0.09090909090909091</v>
@@ -24937,7 +24889,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K574">
         <v>0.09090909090909091</v>
@@ -24963,7 +24915,7 @@
     </row>
     <row r="575" spans="10:17">
       <c r="J575" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K575">
         <v>0.09090909090909091</v>
@@ -25041,7 +24993,7 @@
     </row>
     <row r="578" spans="10:17">
       <c r="J578" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K578">
         <v>0.09090909090909091</v>
@@ -25847,7 +25799,7 @@
     </row>
     <row r="609" spans="10:17">
       <c r="J609" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K609">
         <v>0.0821917808219178</v>
@@ -26003,7 +25955,7 @@
     </row>
     <row r="615" spans="10:17">
       <c r="J615" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K615">
         <v>0.07692307692307693</v>
@@ -26367,7 +26319,7 @@
     </row>
     <row r="629" spans="10:17">
       <c r="J629" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K629">
         <v>0.07506053268765134</v>
@@ -26393,7 +26345,7 @@
     </row>
     <row r="630" spans="10:17">
       <c r="J630" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K630">
         <v>0.075</v>
@@ -27199,7 +27151,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K661">
         <v>0.06609195402298851</v>
@@ -27615,7 +27567,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K677">
         <v>0.06074766355140187</v>
@@ -27901,7 +27853,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K688">
         <v>0.05882352941176471</v>
@@ -28265,7 +28217,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K702">
         <v>0.05555555555555555</v>
@@ -28525,7 +28477,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K712">
         <v>0.05434782608695652</v>
@@ -28811,7 +28763,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K723">
         <v>0.05230769230769231</v>
@@ -29513,7 +29465,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K750">
         <v>0.04651162790697674</v>
@@ -29773,7 +29725,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K760">
         <v>0.04545454545454546</v>
@@ -30163,7 +30115,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K775">
         <v>0.04166666666666666</v>
@@ -30527,7 +30479,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K789">
         <v>0.04</v>
@@ -30761,7 +30713,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K798">
         <v>0.03863987635239567</v>
@@ -30891,7 +30843,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K803">
         <v>0.03703703703703703</v>
@@ -30995,7 +30947,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K807">
         <v>0.03695150115473441</v>
@@ -31047,7 +30999,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K809">
         <v>0.0364963503649635</v>
@@ -31151,7 +31103,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K813">
         <v>0.0351288056206089</v>
@@ -31177,7 +31129,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K814">
         <v>0.03508771929824561</v>
@@ -31229,7 +31181,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K816">
         <v>0.03448275862068965</v>
@@ -31463,7 +31415,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K825">
         <v>0.03333333333333333</v>
@@ -31619,7 +31571,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K831">
         <v>0.03174603174603174</v>
@@ -31931,7 +31883,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K843">
         <v>0.02857142857142857</v>
@@ -32425,7 +32377,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K862">
         <v>0.02564102564102564</v>
@@ -32451,7 +32403,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K863">
         <v>0.02564102564102564</v>
@@ -32815,7 +32767,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K877">
         <v>0.02173913043478261</v>
@@ -32919,7 +32871,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K881">
         <v>0.02001250781738587</v>
@@ -33075,7 +33027,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K887">
         <v>0.01904761904761905</v>
@@ -33101,7 +33053,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K888">
         <v>0.01840490797546012</v>
@@ -33413,7 +33365,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K900">
         <v>0.01612903225806452</v>
@@ -33751,7 +33703,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K913">
         <v>0.01327433628318584</v>
@@ -33829,7 +33781,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K916">
         <v>0.01234567901234568</v>
@@ -33985,7 +33937,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K922">
         <v>0.01063829787234043</v>
@@ -34349,7 +34301,7 @@
     </row>
     <row r="936" spans="10:17">
       <c r="J936" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K936">
         <v>0.005405405405405406</v>
@@ -34427,7 +34379,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K939">
         <v>0.003102378490175801</v>
